--- a/FINAL MATERIAL FOR PUBLISHED PAPER/supplementary tables/Supplementary Table 10 - photographically complete and empty genera and families.xlsx
+++ b/FINAL MATERIAL FOR PUBLISHED PAPER/supplementary tables/Supplementary Table 10 - photographically complete and empty genera and families.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\PhD\CHAPTER 1 - AUSTRALIAN PLANT PHOTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\PhD\CHAPTER 1 - AUSTRALIAN PLANT PHOTOS\proofs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FCFF19-2374-4BD8-ACD7-E4F0ECB2BB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AD969D-570F-4CA8-AA5A-01B67237B875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{64312765-AC5A-4A2B-92AB-C2DD9256EFB1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{64312765-AC5A-4A2B-92AB-C2DD9256EFB1}"/>
   </bookViews>
   <sheets>
-    <sheet name="complete genera" sheetId="1" r:id="rId1"/>
-    <sheet name="complete families" sheetId="2" r:id="rId2"/>
-    <sheet name="empty genera" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="complete genera" sheetId="1" r:id="rId2"/>
+    <sheet name="complete families" sheetId="2" r:id="rId3"/>
+    <sheet name="empty genera" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="1560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="1566">
   <si>
     <t>Complete genera</t>
   </si>
@@ -4717,14 +4718,40 @@
   </si>
   <si>
     <t>Trimeniaceae</t>
+  </si>
+  <si>
+    <t>New Phytologist Supporting Information</t>
+  </si>
+  <si>
+    <t>Photographs as an essential biodiversity resource: drivers of gaps in the vascular plant photographic record</t>
+  </si>
+  <si>
+    <t>Thomas Mesaglio, Hervé Sauquet, David Coleman, Elizabeth Wenk, William K Cornwell</t>
+  </si>
+  <si>
+    <t>Accepted 8 February 2023</t>
+  </si>
+  <si>
+    <t>Caption</t>
+  </si>
+  <si>
+    <t>Complete lists of all photographically complete (= 100% of species photographed) and incomplete (= 0% of species photographed) genera and families from our analysis.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -4752,8 +4779,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5067,6 +5095,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70FC9FF-563D-4B70-9D41-5AECC131294C}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF28991-9D16-4D7F-A6B5-D9A4FA7AA12B}">
   <dimension ref="A1:A1359"/>
   <sheetViews>
@@ -11882,11 +11955,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778730F1-5AD5-483A-9553-6FB9778BF020}">
   <dimension ref="A1:A102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
@@ -12413,7 +12486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86540FD6-7F4F-4B70-948D-B273EE2E6AB8}">
   <dimension ref="A1:A99"/>
   <sheetViews>
